--- a/biology/Botanique/Forêt_de_Bavière/Forêt_de_Bavière.xlsx
+++ b/biology/Botanique/Forêt_de_Bavière/Forêt_de_Bavière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bavi%C3%A8re</t>
+          <t>Forêt_de_Bavière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Bavière (en allemand Bayerischer Wald Écouter ou Bayerwald), à l'est de la Bavière, est le contrefort d'une chaîne de montagnes plus puissante située essentiellement en République tchèque, la forêt de Bohême (ou Böhmerwald).
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bavi%C3%A8re</t>
+          <t>Forêt_de_Bavière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Géographie et géologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La chaîne de montagne fortement boisée s'étend du point de vue géologique et géographico-culturel jusqu'à la Bohême et la Haute-Autriche. Elle se laisse grossièrement esquisser avec la région d'Allemagne qui est au sud de la ligne Regensbourg-Cham-Bayerisch Eisenstein et au nord-est du Danube.
 La forêt de Bavière et de Bohême forment ensemble avec la forêt du Haut-Palatinat ainsi qu'au sud de Passau la forêt de Neubourg et la Sauwald le plus grand espace naturel de Basse-Bavière et aussi la plus grande région boisée d'Europe.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bavi%C3%A8re</t>
+          <t>Forêt_de_Bavière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette région forestière s'étend sur trois pays : l'actuelle forêt de Bohême (Böhmerwald), la forêt de Bavière (Bayerwald ou Bayerischer Wald), une partie du Mühlviertel en Haute Autriche. Avant que l'histoire de cette région soit expliquée, il est important de mettre en avant que le terme Bayerischer Wald a été caractérisé d'abord tôt dans le XIXe siècle (on accepte à buts touristiques de pouvoir délimiter exactement une région jalonnée). Auparavant, il n'y avait aucune indication différente pour cette région, elle était pour les habitants d'un côté comme de l'autre de la forêt de Bohême, ou encore plus couramment der Woid. Son nom apparaît déjà dans les vieilles sources écrites traditionnelles, cette région connaît déjà de grandes personnalités grecques et romaines, ainsi cette partie de montagne forestière d'Europe centrale est désignée par César puis Tacite comme forêt hercynienne.
 Le nom allemand de la zone forestière est donc très ancien. La Bavière, elle-même, nommait à l'origine la grande forêt limitrophe au nord de sa nouvelle région de colonisation la forêt du Nord (Nordwald), qui ressort d'un acte du roi allemand Louis en 853. Plus tard, il s'agit aussi dans l'acte de donations de Niedernburg de 1010 (Niedernburger Schenkungsurkunde de 1010), où la formulation silva quae vocatur Nortuualt est lisible. Mais le terme de forêt du Nord disparaît progressivement et était désigné visiblement comme Bohemica silva (forêt de Bohême) dans toutes les cartes de cette époque. Et Johannes Thurmair, le grand historiographe bavarois, nommé Aventin (1477 jusqu'à 1534) fait figurer dans sa carte de 1523 représentant la Bavière de haut en bas (Obern und Nieder Bayern), la première carte géographique de la Bavière entière, la forêt de Bohême (behemisch waldt) au nord du Danube et avec l'addition du Hercynie et Boiernie pars, il en ressort que la forêt de Bohême n'est pas seulement une partie de la Bohême dans ce document. Puis le cartographe Sebastian Münster informe dans sa célèbre description du monde Cosmographey de 1544 que même toute la chaîne de montagne en forme de losange qui entoure le bassin de Bohême autour de Prague comme un mur (ce qui n'est pas incontestable pour les historiens d'aujourd'hui).
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Bavi%C3%A8re</t>
+          <t>Forêt_de_Bavière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Le parc national</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cœur de la forêt est un parc national où l'exploitation commerciale du bois a été stoppée pour laisser la nature reprendre ses droits. Ce parc a été créé en 1970 par la Bavière avec tout d'abord 130 km2 et a été agrandi en 1997 avec les régions entre le Große Rachel et le Große Falkenstein sur 240 km2. Le parc comprend quelques régions avec l'épaisse forêt appelée vierge (Urwald), de petits lacs et des marais de Regen (Regenmooren) qui sont souvent nommés le haut marais (Hochmoor).
 Il forme avec le parc national tchèque Šumava la plus grande région forestière d'Europe centrale. L'aménagement et le climat en ont fait en 35 ans une forêt naturelle inhabituelle et variée.
